--- a/medicine/Œil et vue/Membrane_de_Bowman/Membrane_de_Bowman.xlsx
+++ b/medicine/Œil et vue/Membrane_de_Bowman/Membrane_de_Bowman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane de Bowman ou lame limitante antérieure de la cornée est une couche de collagène située dans la cornée, entre la membrane basale épithéliale et le stroma. Individualisée chez l'homme, elle mesure de 8  à   14 μm dans sa partie centrale.
 Elle est constituée de fibres de collagène réparties au hasard dans de la substance fondamentale ; dépourvue de cellules hormis quelques cellules de schwann entourant les terminaisons nerveuses. La substance fondamentale est quant à elle constituée de mucoprotéines de composition chimique semblable à celle du stroma. Les fibres de collagène certainement de type IV, V, VI, VII présente une striation transversale de diamètre 20  à   30 μm et 240 à 270 Angström de long. Cette couche anhiste n'est pas à proprement parler une membrane.
